--- a/stock_data/005930_stock_data_today.xlsx
+++ b/stock_data/005930_stock_data_today.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="177">
   <si>
     <t>날짜</t>
   </si>
@@ -22,547 +22,529 @@
     <t>제목</t>
   </si>
   <si>
-    <t>2025.03.27</t>
-  </si>
-  <si>
-    <t>[정의구현]KBS2...삼성에 반납하라</t>
+    <t>2025.04.02</t>
+  </si>
+  <si>
+    <t>4월4일 탄핵 확정</t>
+  </si>
+  <si>
+    <t>59에서 공매치고 58에서 매수해라</t>
+  </si>
+  <si>
+    <t>윤석열이는 잘못 한게 없다</t>
+  </si>
+  <si>
+    <t>4월 수출입동향, 외환위기급으로 직행</t>
+  </si>
+  <si>
+    <t>종가는 마이너스</t>
+  </si>
+  <si>
+    <t>친중타령하는 반국가 반민주 반시장주의자들...  [1]</t>
+  </si>
+  <si>
+    <t>어르신이 산에서 불장난좀 한것을</t>
+  </si>
+  <si>
+    <t>일단 이죄명을 구속해야 상승추세 전환해</t>
+  </si>
+  <si>
+    <t>삼전</t>
+  </si>
+  <si>
+    <t>선물지수</t>
+  </si>
+  <si>
+    <t>무당이 잡은 선고일, 死월 死일  [2]</t>
+  </si>
+  <si>
+    <t>오죽했으면 군대를 동원할까.. 그래서</t>
+  </si>
+  <si>
+    <t>트럼프 관세 최소 20%라는데</t>
+  </si>
+  <si>
+    <t>가자~~  [1]</t>
+  </si>
+  <si>
+    <t>[속보] 6/3일 대통령선거일 공휴일 지...  [2]</t>
+  </si>
+  <si>
+    <t>개인 기금 자사주 하고 힘겨루기</t>
+  </si>
+  <si>
+    <t>4월4일</t>
+  </si>
+  <si>
+    <t>당연히 대한민국 보수주의자들은 윤석열 파...</t>
+  </si>
+  <si>
+    <t>★ 윤씨탄핵 되면, 2찍들 또 살인 저지...</t>
+  </si>
+  <si>
+    <t>외인들 공매도 시작하면 몇달 간다</t>
+  </si>
+  <si>
+    <t>내란 윤석열 국민 지지 받는 사례~</t>
+  </si>
+  <si>
+    <t>그런걸 들고있어서 돈벌라고 샀는데 사실  [2]</t>
+  </si>
+  <si>
+    <t>시장왜이런거임?  [1]</t>
+  </si>
+  <si>
+    <t>윤기각되면 환율 어캐될까</t>
+  </si>
+  <si>
+    <t>라인은 완전히 일본으로 넘어감</t>
+  </si>
+  <si>
+    <t>중국간 재용이</t>
+  </si>
+  <si>
+    <t>윤통의 비상계엄 선포는 정당했다.  [3]</t>
+  </si>
+  <si>
+    <t>앞으로</t>
+  </si>
+  <si>
+    <t>4:4로 기각될 수도 있음을 염두에 둬야...</t>
+  </si>
+  <si>
+    <t>윤대통령 2기 국민 재신임 .</t>
+  </si>
+  <si>
+    <t>클린봇이 이용자 보호를 위해 숨긴 게시글입니다.  [1]</t>
+  </si>
+  <si>
+    <t>윤석열과 정재원의 차이  [1]</t>
+  </si>
+  <si>
+    <t>2찍아  [3]</t>
+  </si>
+  <si>
+    <t>4월4일 탄핵 확정 입니다  [1]</t>
+  </si>
+  <si>
+    <t>●●●●국힘당은 진정한 보수당 창출을 막...  [2]</t>
+  </si>
+  <si>
+    <t>민주당에 친중이라는 2찍들</t>
+  </si>
+  <si>
+    <t>4월4일 탄핵 확정 입니다</t>
+  </si>
+  <si>
+    <t>500주 들고 있습니다.</t>
+  </si>
+  <si>
+    <t>대국민 사기극  [1]</t>
   </si>
   <si>
     <t>클린봇이 이용자 보호를 위해 숨긴 게시글입니다.</t>
   </si>
   <si>
-    <t>김건희의 소망</t>
-  </si>
-  <si>
-    <t>경상도 노인분들 다음선거때</t>
-  </si>
-  <si>
-    <t>낄낄낄 안동지역 모조리 불태우는 괴물 산...  [2]</t>
-  </si>
-  <si>
-    <t>이재명 무죄받을 것을 하늘이 알고</t>
-  </si>
-  <si>
-    <t>법장난에 이어</t>
-  </si>
-  <si>
-    <t>삼성전자는 이제 이재명 대표 테마주네 ㅋ</t>
-  </si>
-  <si>
-    <t>◐{극우 필독!!!} ☞ 빨리, 화장터가...</t>
-  </si>
-  <si>
-    <t>아동 강깐범보다 나쁜 발개이들  [1]</t>
-  </si>
-  <si>
-    <t>이재명 관련주 삼성전자....</t>
-  </si>
-  <si>
-    <t>0.5%에 관련주야?ㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>국회</t>
-  </si>
-  <si>
-    <t>술집가스나 쟉부짓 할 시간이 없었단다</t>
-  </si>
-  <si>
-    <t>아 !! 삼성전자 &lt;10주-50주-10...</t>
-  </si>
-  <si>
-    <t>이재명이 사법 리스크 있을지 없을지 모르...  [1]</t>
-  </si>
-  <si>
-    <t>●정형식.조한창,,김복형●수구,극우 정치...  [1]</t>
-  </si>
-  <si>
-    <t>전국 산불 수사하라</t>
-  </si>
-  <si>
-    <t>개인들 팔아 재끼니</t>
-  </si>
-  <si>
-    <t>매년 있는 이태원 할로원, 윤석열 정부 ...</t>
-  </si>
-  <si>
-    <t>이재는 사진만확대해도 조작범죄 입니다</t>
-  </si>
-  <si>
-    <t>이번 계엄으로 계몽됐습니다.. 윤대통령</t>
-  </si>
-  <si>
-    <t>이죄명 위로"나라에 돈 많아요 다 해줄게...</t>
-  </si>
-  <si>
-    <t>[결국]아...결국 암살이란 말인가ㅜㅜ</t>
-  </si>
-  <si>
-    <t>절라도가 암만 발악해봐야 ㅡ  [2]</t>
-  </si>
-  <si>
-    <t>극우에게 겁박당하고 겁먹은 헌재 개판관</t>
-  </si>
-  <si>
-    <t>개잡주 삼전 개관넘들 패대기 치네ㅋ</t>
-  </si>
-  <si>
-    <t>[ㅜㅜ]하늘도 노했다..  [1]</t>
-  </si>
-  <si>
-    <t>전쟁나면 발개이부터 묻어야함</t>
-  </si>
-  <si>
-    <t>폭탄주 먹인 돼지고기</t>
-  </si>
-  <si>
-    <t>축하드립니다.  [2]</t>
-  </si>
-  <si>
-    <t>6초딩 계몽되다.</t>
-  </si>
-  <si>
-    <t>이 중범죄 정신병은 술집가스나가</t>
-  </si>
-  <si>
-    <t>모두 잘들어  [1]</t>
-  </si>
-  <si>
-    <t>이재명 대통령 사법리스크</t>
-  </si>
-  <si>
-    <t>윤석렬이 복귀하면 경찰 병력으로</t>
-  </si>
-  <si>
-    <t>이대표님과 이회장님은 같은항렬 같은 집안...</t>
-  </si>
-  <si>
-    <t>헌법재판소 개판관  [1]</t>
-  </si>
-  <si>
-    <t>산불도 못끄는 무능력자들</t>
-  </si>
-  <si>
-    <t>입벌구 윤석열 선거법위반 8가지  [2]</t>
-  </si>
-  <si>
-    <t>D역시~~~~!</t>
-  </si>
-  <si>
-    <t>애들아?  [3]</t>
-  </si>
-  <si>
-    <t>이재명을 대통령으로 추대  [2]</t>
-  </si>
-  <si>
-    <t>2찍이들이 모르는 상식. 오리지널 사진이...</t>
-  </si>
-  <si>
-    <t>아이티 쿠테타 200번</t>
-  </si>
-  <si>
-    <t>헌재가 안도와주네  [1]</t>
-  </si>
-  <si>
-    <t>이순신장군님 다음 대한민국의 위대한 위인  [3]</t>
-  </si>
-  <si>
-    <t>찢은 타고난 사람이다 그는 신과같다</t>
-  </si>
-  <si>
-    <t>재난현장주민 "왜 이제와"이죄명"나라에 ...</t>
-  </si>
-  <si>
-    <t>중간값</t>
-  </si>
-  <si>
-    <t>[분석]CCTV 확대..  [3]</t>
-  </si>
-  <si>
-    <t>8만 전자도 꿈이 아닌듯</t>
-  </si>
-  <si>
-    <t>윤수괴 파면에 기각의견을 낸 재판관은  [1]</t>
-  </si>
-  <si>
-    <t>프리마켓 없애라 짜증난다  [1]</t>
-  </si>
-  <si>
-    <t>아직도</t>
-  </si>
-  <si>
-    <t>이익실현</t>
-  </si>
-  <si>
-    <t>18%</t>
-  </si>
-  <si>
-    <t>김개리 저팔개 헌재에서 저는 계몽되었어요...  [1]</t>
-  </si>
-  <si>
-    <t>국무위원이 헌법을 위반한 것은 아무리 경...</t>
-  </si>
-  <si>
-    <t>■속보■ 이재명 불법성매매 수사  [2]</t>
-  </si>
-  <si>
-    <t>재미삼아 AI에게 물어봄  [1]</t>
-  </si>
-  <si>
-    <t>오늘 튀면 6만오천 바로가는데</t>
-  </si>
-  <si>
-    <t>이씨는 무죄다</t>
-  </si>
-  <si>
-    <t>[궁금]알아서 처리해...  [1]</t>
-  </si>
-  <si>
-    <t>윤씨는 정치인생 끝났다 계몽령 잘한거여</t>
-  </si>
-  <si>
-    <t>여따 정치글 왜쓰냐 왕따냐</t>
-  </si>
-  <si>
-    <t>작부는돼지머리걷어차</t>
-  </si>
-  <si>
-    <t>제명이가 당선되려면</t>
-  </si>
-  <si>
-    <t>보수 대통들의 비참한 결말..</t>
-  </si>
-  <si>
-    <t>범죄를 저질러도 처벌받지않은집단카르텔</t>
-  </si>
-  <si>
-    <t>현직교도관입니다...  [1]</t>
-  </si>
-  <si>
-    <t>누림 통과직전</t>
-  </si>
-  <si>
-    <t>CIA 가짜신분증제작한 캡틴 아메리카</t>
-  </si>
-  <si>
-    <t>진심 天災 마렵다...개관 사무실, 까만...</t>
-  </si>
-  <si>
-    <t>정형식이 경호붙여야할듯  [1]</t>
-  </si>
-  <si>
-    <t>나를 ㆍ 만나신 ㆍ 조물주 ㅡ ㅎ ㅏ나님...</t>
-  </si>
-  <si>
-    <t>국힘과 검찰 주장이 맞다면  [1]</t>
-  </si>
-  <si>
-    <t>건성동아. ~~</t>
-  </si>
-  <si>
-    <t>소방비행기 없애버린 내란쟉부당 ㅋ</t>
-  </si>
-  <si>
-    <t>국회 담넘고 제주항공 빵야빵야 불놀이</t>
-  </si>
-  <si>
-    <t>헌죄야 멋헌다냐?</t>
-  </si>
-  <si>
-    <t>찢재명 무죄</t>
-  </si>
-  <si>
-    <t>오늘62를못찍네반도체주가너무약세네ㅠㅠ</t>
-  </si>
-  <si>
-    <t>삼전은 애국기업인가?  [1]</t>
-  </si>
-  <si>
-    <t>헌재는 윤수괴를 당장파면하라!  [2]</t>
-  </si>
-  <si>
-    <t>●●파죽지세!!비상계엄, 내란 동조.검찰...</t>
-  </si>
-  <si>
-    <t>싹다 물가리가 답이다</t>
-  </si>
-  <si>
-    <t>엄마 교도소는 어디야 ?</t>
-  </si>
-  <si>
-    <t>세명중 절라 판사 두인간이 우겨서 ...  [4]</t>
-  </si>
-  <si>
-    <t>국힘당의 불순한 사진조작  [1]</t>
-  </si>
-  <si>
-    <t>백현동사업은 이재명의 업적이다.</t>
-  </si>
-  <si>
-    <t>나ㆍ부엉이는 너희 한국자에게 무얼 요구하...</t>
-  </si>
-  <si>
-    <t>얼마나 열등감에 휩싸이면 죄도 없는 재명...  [1]</t>
-  </si>
-  <si>
-    <t>오늘</t>
-  </si>
-  <si>
-    <t>윤석렬 이 문제가 아니다 재명이가 무죄란...</t>
-  </si>
-  <si>
-    <t>윤두창 국민의짐</t>
-  </si>
-  <si>
-    <t>저열한 잡범 이재명 일당의 사법카르텔</t>
-  </si>
-  <si>
-    <t>심우정  [2]</t>
-  </si>
-  <si>
-    <t>이제명 골프사진 조작이라 오해소지 충분  [1]</t>
-  </si>
-  <si>
-    <t>교도소 간다고 슬퍼마라  [1]</t>
-  </si>
-  <si>
-    <t>이재명 살판났네  [1]</t>
-  </si>
-  <si>
-    <t>7만 넘어간다....</t>
-  </si>
-  <si>
-    <t>남로당 잔당들아 이재명은 죄가 없다</t>
-  </si>
-  <si>
-    <t>조작과 음모로 야당대표를 3년 보복</t>
-  </si>
-  <si>
-    <t>다 꼬라박는데, 삼전은 견디네.</t>
-  </si>
-  <si>
-    <t>나ㆍ부엉이가 세계 증시를 다스린지 ㅣ5년...  [1]</t>
-  </si>
-  <si>
-    <t>[YTN자막속보] YTN에 의하면 헌재 ...  [3]</t>
-  </si>
-  <si>
-    <t>좌파,좌파하는것들  [1]</t>
-  </si>
-  <si>
-    <t>재명이가 무죄란다.</t>
-  </si>
-  <si>
-    <t>사진 확대하면 사진 조작범</t>
-  </si>
-  <si>
-    <t>악마, 이재명이 대한민국을 무차별 십창냈...</t>
-  </si>
-  <si>
-    <t>어대명 =&gt; 십만전자</t>
-  </si>
-  <si>
-    <t>좌파가 팩트에 부들부들 하는이유</t>
-  </si>
-  <si>
-    <t>전라도 정재오 좌파판사  [1]</t>
-  </si>
-  <si>
-    <t>좌파판사 기술 세계 Top이네</t>
-  </si>
-  <si>
-    <t>엄청</t>
-  </si>
-  <si>
-    <t>이재명 안동 방문  [1]</t>
-  </si>
-  <si>
-    <t>얼마나 공평하고 자비로운 사람이니  [10]</t>
-  </si>
-  <si>
-    <t>재명이가 무죄면 교도소 문 개방해야한다...  [2]</t>
-  </si>
-  <si>
-    <t>괜찮아..</t>
-  </si>
-  <si>
-    <t>저열한 잡범 이재명 일당의 사법카르텔  [2]</t>
-  </si>
-  <si>
-    <t>2030 80%가 보수 우파  [3]</t>
-  </si>
-  <si>
-    <t>신나서 산불현장에 간 이재명  [1]</t>
-  </si>
-  <si>
-    <t>나라 망해도 2찍한다 그래서</t>
-  </si>
-  <si>
-    <t>나 부엉이는 좌ㆍ 우파는 아닌데 이명박 ...</t>
-  </si>
-  <si>
-    <t>오늘자믄보합이겟구나?</t>
-  </si>
-  <si>
-    <t>재명이가 무죄면 ~~</t>
-  </si>
-  <si>
-    <t>나이가 60정도만 되어도 ..</t>
-  </si>
-  <si>
-    <t>30만 사기꾼 수감자들 나도 무죄라고 주...</t>
-  </si>
-  <si>
-    <t>아~~~일하기 싫타 ㅜㅜ  [1]</t>
-  </si>
-  <si>
-    <t>20년차 고수 한마디 하고갑니다.</t>
-  </si>
-  <si>
-    <t>애국보수라 자칭하는 노인들아  [1]</t>
-  </si>
-  <si>
-    <t>코스피 코스닥 거래대금 씨가말랏다.</t>
-  </si>
-  <si>
-    <t>윤카 복귀하시고</t>
-  </si>
-  <si>
-    <t>우리나라 사법부의 현주소</t>
-  </si>
-  <si>
-    <t>[에스와이] 단열재 주택</t>
-  </si>
-  <si>
-    <t>오</t>
-  </si>
-  <si>
-    <t>이재명이가 무죄란다.  [1]</t>
-  </si>
-  <si>
-    <t>공매도 국민연금폐지해라</t>
-  </si>
-  <si>
-    <t>ㆍ나 부엉이는 센터 존정 이었느니라 세상...</t>
-  </si>
-  <si>
-    <t>반국가세력 연쇄산불 방화  [3]</t>
-  </si>
-  <si>
-    <t>산불</t>
-  </si>
-  <si>
-    <t>윤비어천가 ~~~</t>
-  </si>
-  <si>
-    <t>찢맹이 2심 무죄는????  [2]</t>
-  </si>
-  <si>
-    <t>사실을 알아도 인내와 때가 있는 이치에 ...</t>
-  </si>
-  <si>
-    <t>이재명 화이팅</t>
-  </si>
-  <si>
-    <t>지금 연쇄 산불 방화를 보니 광주사태는</t>
-  </si>
-  <si>
-    <t>헌재는 빨리 발표해라</t>
-  </si>
-  <si>
-    <t>조작검찰 ~~,, 김명신 닮았네 ~~</t>
-  </si>
-  <si>
-    <t>70년 역사상</t>
-  </si>
-  <si>
-    <t>'자유우파'라 쓰고, 공산파시스트로 읽는...</t>
-  </si>
-  <si>
-    <t>국토가 초토화 되는구나</t>
-  </si>
-  <si>
-    <t>정치테마주라서 안 내려가네.</t>
-  </si>
-  <si>
-    <t>tmdf*** 토차괘구 수꼴아 ㅋ 뒤주에...</t>
-  </si>
-  <si>
-    <t>헌재재판관에게 도올.?</t>
-  </si>
-  <si>
-    <t>공수처</t>
-  </si>
-  <si>
-    <t>ㅡ내가 ㆍ 곧 길이요. 진리요 ㅡ생명이니...</t>
-  </si>
-  <si>
-    <t>사법부의 좌파판사들 퇴출시켜라.  [1]</t>
-  </si>
-  <si>
-    <t>반도체 가격 인상 수혜 한양디지텍</t>
-  </si>
-  <si>
-    <t>삼전이 지수 슈퍼방어 해주는구나.</t>
-  </si>
-  <si>
-    <t>국제파가 어디까지 관리 하나요?</t>
-  </si>
-  <si>
-    <t>일단 자유우파들은??????</t>
-  </si>
-  <si>
-    <t>공수처 "지귀연 수사 착수"</t>
-  </si>
-  <si>
-    <t>이참에 판사들 없애도 될 듯</t>
-  </si>
-  <si>
-    <t>불타는 안동 골프장 운영강행 ㅋ</t>
-  </si>
-  <si>
-    <t>얘들아</t>
-  </si>
-  <si>
-    <t>다시 새롭게가자</t>
-  </si>
-  <si>
-    <t>곧 올라가겠네</t>
-  </si>
-  <si>
-    <t>지마누라도 통제 못하는데</t>
-  </si>
-  <si>
-    <t>재매이가 대통령이 된다한들 임기 마치면</t>
-  </si>
-  <si>
-    <t>내친구들</t>
-  </si>
-  <si>
-    <t>이재명대통령이 삼성을 살린다  [1]</t>
-  </si>
-  <si>
-    <t>이재명 대통령  [1]</t>
-  </si>
-  <si>
-    <t>재매이 장난치다 정말 큰 일 당할 듯 ㅋ</t>
-  </si>
-  <si>
-    <t>이 판국에 tsmc 납품이라니..</t>
-  </si>
-  <si>
-    <t>외인들이 많이 사네요~</t>
-  </si>
-  <si>
-    <t>이재명 재판 판결을 보고 난후  [4]</t>
-  </si>
-  <si>
-    <t>이재명 재판 판결을 보고 난후</t>
-  </si>
-  <si>
-    <t>지수가 빠졌는데 이거 머지?</t>
-  </si>
-  <si>
-    <t>산불하나 제대로 통제못해 경남 경북을 힙...</t>
+    <t>줄리연은 언제 처단하냐</t>
+  </si>
+  <si>
+    <t>25년1분기 매출/이익&gt;&gt;언제 발표??/  [1]</t>
+  </si>
+  <si>
+    <t>신뢰도 제로인 한덕수</t>
+  </si>
+  <si>
+    <t>찢찢찢에 중독된 2찍 좀비 위험성</t>
+  </si>
+  <si>
+    <t>찢멍주~</t>
+  </si>
+  <si>
+    <t>59100원 500주 공매 ㅋㅋ  [1]</t>
+  </si>
+  <si>
+    <t>삼성주식은</t>
+  </si>
+  <si>
+    <t>이것이 계몽이었는가?</t>
+  </si>
+  <si>
+    <t>아</t>
+  </si>
+  <si>
+    <t>역대급 무능 모든곳 초토화</t>
+  </si>
+  <si>
+    <t>평단 77500 / 1501  [2]</t>
+  </si>
+  <si>
+    <t>윤석열 탄핵 기각시 최고 수훈갑~</t>
+  </si>
+  <si>
+    <t>대세는 삼성전자네요!  [2]</t>
+  </si>
+  <si>
+    <t>윤통의 비상계엄 선포는 정당했다.</t>
+  </si>
+  <si>
+    <t>에어레인 대박 축하</t>
+  </si>
+  <si>
+    <t>현금비중 99.9프로 확보완료 가즈아 이...</t>
+  </si>
+  <si>
+    <t>2030신천지 대졸미취업 대거영입</t>
+  </si>
+  <si>
+    <t>냉정히 트럼프처럼 사업하면,</t>
+  </si>
+  <si>
+    <t>중요한 시기에 10조를 자사주 매입에 쓰...</t>
+  </si>
+  <si>
+    <t>지귀연 판사 협박 받았나요?</t>
+  </si>
+  <si>
+    <t>4월4일 탄홱 확정</t>
+  </si>
+  <si>
+    <t>4월4일 탄핵확정</t>
+  </si>
+  <si>
+    <t>윤석열 탄핵 기각되고 더듬어 개딸 모아~</t>
+  </si>
+  <si>
+    <t>미래에서 왔습니다</t>
+  </si>
+  <si>
+    <t>2찍들아 하나만 묻자</t>
+  </si>
+  <si>
+    <t>이미선  [1]</t>
+  </si>
+  <si>
+    <t>삼성전자 게시판 딸피들 특징</t>
+  </si>
+  <si>
+    <t>이것들이</t>
+  </si>
+  <si>
+    <t>삼성 정보력, 짱이네</t>
+  </si>
+  <si>
+    <t>크레이지트럼프</t>
+  </si>
+  <si>
+    <t>혁명의 단두대를 준비하자</t>
+  </si>
+  <si>
+    <t>★★★주식담보대출/신용 금리이벤트★★★</t>
+  </si>
+  <si>
+    <t>더불 어처구니없당 으로 당명 바꿔라  [1]</t>
+  </si>
+  <si>
+    <t>이재명이 아님 죽음뿐이죠</t>
+  </si>
+  <si>
+    <t>어떤게 좋을거같냐?</t>
+  </si>
+  <si>
+    <t>글로벌 완전최강</t>
+  </si>
+  <si>
+    <t>리재명 대선 지지율 33%</t>
+  </si>
+  <si>
+    <t>국민들은 민주당 욕하는게 아니고 국힘당 ...</t>
+  </si>
+  <si>
+    <t>4월4일 탄핵 확정  [2]</t>
+  </si>
+  <si>
+    <t>서결이 기각돼면 찢죄멍</t>
+  </si>
+  <si>
+    <t>위헌을 밥 먹듯이하는 법마피아들  [2]</t>
+  </si>
+  <si>
+    <t>삼전 꼬붕 와이씨도 데려가라</t>
+  </si>
+  <si>
+    <t>일을 이지경으로  [2]</t>
+  </si>
+  <si>
+    <t>4월4일 탄홱 확정 경축  [1]</t>
+  </si>
+  <si>
+    <t>이재명 황제폐하각하대통령님</t>
+  </si>
+  <si>
+    <t>한솥밥 식구가 죽어도</t>
+  </si>
+  <si>
+    <t>위헌을 자행하고 있는 한 권한대행  [1]</t>
+  </si>
+  <si>
+    <t>무능한 부패정권이 막을 내리고 있다.</t>
+  </si>
+  <si>
+    <t>부정선거</t>
+  </si>
+  <si>
+    <t>탄핵기각  [1]</t>
+  </si>
+  <si>
+    <t>@@ 국민의힘당 은 해체수순이되어야 할겁...</t>
+  </si>
+  <si>
+    <t>죄맹이햄.폐경이.요즘도</t>
+  </si>
+  <si>
+    <t>말 뿐인 사즉생???</t>
+  </si>
+  <si>
+    <t>4월4일 탄핵 확정!</t>
+  </si>
+  <si>
+    <t>찢도련님.감방가기전에  [2]</t>
+  </si>
+  <si>
+    <t>극우 유튜버들..정신병자 맞다</t>
+  </si>
+  <si>
+    <t>이재명 지지자들..정신병자 맞다</t>
+  </si>
+  <si>
+    <t>찢재명구속 더불공산당 해체 공산당 나가라  [1]</t>
+  </si>
+  <si>
+    <t>우리나라 시장이 쓰레기인 이유</t>
+  </si>
+  <si>
+    <t>나는 계몽되엇다 내란 세력으로 계몽되면 ...  [1]</t>
+  </si>
+  <si>
+    <t>양매도중  [1]</t>
+  </si>
+  <si>
+    <t>이곳이 문제로다  [1]</t>
+  </si>
+  <si>
+    <t>일제때 우리나라는 일본이란 사람이 국힘당...  [1]</t>
+  </si>
+  <si>
+    <t>4월4일 탄 핵 확정</t>
+  </si>
+  <si>
+    <t>알간</t>
+  </si>
+  <si>
+    <t>막산이를 단죄하여</t>
+  </si>
+  <si>
+    <t>왕국은 왕을 위한나라 왕이 주인이고 민주...</t>
+  </si>
+  <si>
+    <t>●●●●●상식상 말해보자●●●●●</t>
+  </si>
+  <si>
+    <t>한대행, 북 이상 조짐시 바로 제압  [1]</t>
+  </si>
+  <si>
+    <t>북한지령문과 우리법 연구회개들</t>
+  </si>
+  <si>
+    <t>해외 친위쿠테타는  [1]</t>
+  </si>
+  <si>
+    <t>1조 클럽</t>
+  </si>
+  <si>
+    <t>@@ 한대 행은 철학의 부재로능력이 안...</t>
+  </si>
+  <si>
+    <t>어차피 사실을 다 들어난다</t>
+  </si>
+  <si>
+    <t>내란선동</t>
+  </si>
+  <si>
+    <t>난 그렇게 말도안되게 생각했던적도 있었던...  [13]</t>
+  </si>
+  <si>
+    <t>한대행, 국민들의 헌법수호 의무 강조  [2]</t>
+  </si>
+  <si>
+    <t>4일결과에따라</t>
+  </si>
+  <si>
+    <t>개잡주 삼전 오늘도 59,400원자리 쌍...</t>
+  </si>
+  <si>
+    <t>오리엔트 정공. 3천원 짜리가  [2]</t>
+  </si>
+  <si>
+    <t>환율 떨어지는거 보소 ㄷㄷ</t>
+  </si>
+  <si>
+    <t>지귀연 판사는 왜?</t>
+  </si>
+  <si>
+    <t>이재명 만세 만세 만만세</t>
+  </si>
+  <si>
+    <t>지금 2찍이들, 군투입 계엄에 대한민국이</t>
+  </si>
+  <si>
+    <t>Jp모건 사는척 하면서 개미들 들어오면 ...</t>
+  </si>
+  <si>
+    <t>자기가 개설한 증권사 계좌식들에게 평생</t>
+  </si>
+  <si>
+    <t>은혜를 원수로 갚는 사탄의 자식들  [2]</t>
+  </si>
+  <si>
+    <t>●●●●●상식상 말할께●●●●●</t>
+  </si>
+  <si>
+    <t>내란수괴 윤석열 파면 이후...</t>
+  </si>
+  <si>
+    <t>삼전은 공매도 칠 것도 없음. 너무 빠져...</t>
+  </si>
+  <si>
+    <t>윤석열이가 시진핑보다 악랄한게~</t>
+  </si>
+  <si>
+    <t>tmdf** 토차괘구 수꼴늠 ㅋㅋㅋ 반일...</t>
+  </si>
+  <si>
+    <t>넘어가면</t>
+  </si>
+  <si>
+    <t>삼성전자로 지수 받치고</t>
+  </si>
+  <si>
+    <t>금욜날</t>
+  </si>
+  <si>
+    <t>숏커버가 생각보다 빠를수도</t>
+  </si>
+  <si>
+    <t>잡아야 될때 잡아야 개미라는 소리 안 듣...</t>
+  </si>
+  <si>
+    <t>파면이 아니라  [1]</t>
+  </si>
+  <si>
+    <t>◆윤석열의 운명~ ◆</t>
+  </si>
+  <si>
+    <t>장하다 윤술열</t>
+  </si>
+  <si>
+    <t>엔비디아</t>
+  </si>
+  <si>
+    <t>이대로 기각된다면 ㅋ 조기대선 조바심을 ...  [1]</t>
+  </si>
+  <si>
+    <t>구약 --신약 --구분 할 줄 나나/...</t>
+  </si>
+  <si>
+    <t>천지창조.ㅡ</t>
+  </si>
+  <si>
+    <t>[삭제된 게시물의 답글]윤석열 싫은데</t>
+  </si>
+  <si>
+    <t>장하다 윤술열  [2]</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>尹파면되는 순간, 형사범죄자 전락 20건...</t>
+  </si>
+  <si>
+    <t>대한민국의 시작  [1]</t>
+  </si>
+  <si>
+    <t>찢죄명 구속!!!!!!  [1]</t>
+  </si>
+  <si>
+    <t>새롭게 우뚝선 이재명관련주</t>
+  </si>
+  <si>
+    <t>장하다 윤술렬....</t>
+  </si>
+  <si>
+    <t>60000``````</t>
+  </si>
+  <si>
+    <t>◆재용아 하이닉스 보다 못한 삼성이 되었...</t>
+  </si>
+  <si>
+    <t>민주당 지지자 타령하는 극우들~</t>
+  </si>
+  <si>
+    <t>호수위에 달그림자가</t>
+  </si>
+  <si>
+    <t>■골프는 3이서 쳤다메??</t>
+  </si>
+  <si>
+    <t>육만전자</t>
+  </si>
+  <si>
+    <t>김재규 장군이 막으려한 양민학살. 석열이...</t>
+  </si>
+  <si>
+    <t>찢 사형 확정되면 삼성전자 상한가</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋ대통령</t>
+  </si>
+  <si>
+    <t>문재앙의 갈라치기가 국민분열의 시작</t>
+  </si>
+  <si>
+    <t>거북이 주식 삼성전자</t>
+  </si>
+  <si>
+    <t>외국인까지 처벌 가능한 국가보안법이 답이...</t>
+  </si>
+  <si>
+    <t>테스!</t>
+  </si>
+  <si>
+    <t>극우들 중국이 돈준다면 갈아탈 애들  [2]</t>
+  </si>
+  <si>
+    <t>윤석열 해냇어요....  [2]</t>
+  </si>
+  <si>
+    <t>한다면 하는 두창이</t>
+  </si>
+  <si>
+    <t>4월4일 주걸4짜 2번 반복 되어 나옴 ...</t>
+  </si>
+  <si>
+    <t>내일 하야  [1]</t>
+  </si>
+  <si>
+    <t>윤파면 선고후, 곧바로 내란특검 가동해야  [1]</t>
+  </si>
+  <si>
+    <t>■0.158 만취운전 잡범은??</t>
+  </si>
+  <si>
+    <t>그래 내 부모 별거아니야  [17]</t>
+  </si>
+  <si>
+    <t>파운드화 다른나라 환율봐라</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1017,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1043,7 +1025,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1051,7 +1033,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1059,7 +1041,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1067,7 +1049,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1075,7 +1057,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1083,7 +1065,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1091,7 +1073,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1099,7 +1081,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1107,7 +1089,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1115,7 +1097,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1123,7 +1105,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1131,7 +1113,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1139,7 +1121,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1147,7 +1129,7 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1155,7 +1137,7 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1163,7 +1145,7 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1171,7 +1153,7 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1179,7 +1161,7 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1187,7 +1169,7 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1195,7 +1177,7 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1203,7 +1185,7 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1211,7 +1193,7 @@
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1219,7 +1201,7 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1227,7 +1209,7 @@
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1235,7 +1217,7 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1243,7 +1225,7 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1251,7 +1233,7 @@
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1259,7 +1241,7 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1267,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1275,7 +1257,7 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1283,7 +1265,7 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1291,7 +1273,7 @@
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1299,7 +1281,7 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1307,7 +1289,7 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1315,7 +1297,7 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1323,7 +1305,7 @@
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1331,7 +1313,7 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1339,7 +1321,7 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1347,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1355,7 +1337,7 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1363,7 +1345,7 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1371,7 +1353,7 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1379,7 +1361,7 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1387,7 +1369,7 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1395,7 +1377,7 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1403,7 +1385,7 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1411,7 +1393,7 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1419,7 +1401,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1427,7 +1409,7 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1435,7 +1417,7 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1443,7 +1425,7 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1451,7 +1433,7 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1459,7 +1441,7 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1467,7 +1449,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1475,7 +1457,7 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1595,7 +1577,7 @@
         <v>2</v>
       </c>
       <c r="B84" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1603,7 +1585,7 @@
         <v>2</v>
       </c>
       <c r="B85" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1611,7 +1593,7 @@
         <v>2</v>
       </c>
       <c r="B86" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1619,7 +1601,7 @@
         <v>2</v>
       </c>
       <c r="B87" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1627,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="B88" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1635,7 +1617,7 @@
         <v>2</v>
       </c>
       <c r="B89" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1643,7 +1625,7 @@
         <v>2</v>
       </c>
       <c r="B90" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1651,7 +1633,7 @@
         <v>2</v>
       </c>
       <c r="B91" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1659,7 +1641,7 @@
         <v>2</v>
       </c>
       <c r="B92" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1667,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="B93" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1675,7 +1657,7 @@
         <v>2</v>
       </c>
       <c r="B94" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1699,7 +1681,7 @@
         <v>2</v>
       </c>
       <c r="B97" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1707,7 +1689,7 @@
         <v>2</v>
       </c>
       <c r="B98" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1715,7 +1697,7 @@
         <v>2</v>
       </c>
       <c r="B99" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1723,7 +1705,7 @@
         <v>2</v>
       </c>
       <c r="B100" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1731,7 +1713,7 @@
         <v>2</v>
       </c>
       <c r="B101" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1739,7 +1721,7 @@
         <v>2</v>
       </c>
       <c r="B102" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1747,7 +1729,7 @@
         <v>2</v>
       </c>
       <c r="B103" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1755,7 +1737,7 @@
         <v>2</v>
       </c>
       <c r="B104" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1763,7 +1745,7 @@
         <v>2</v>
       </c>
       <c r="B105" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1771,7 +1753,7 @@
         <v>2</v>
       </c>
       <c r="B106" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1779,7 +1761,7 @@
         <v>2</v>
       </c>
       <c r="B107" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1787,7 +1769,7 @@
         <v>2</v>
       </c>
       <c r="B108" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1811,7 +1793,7 @@
         <v>2</v>
       </c>
       <c r="B111" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1819,7 +1801,7 @@
         <v>2</v>
       </c>
       <c r="B112" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1827,7 +1809,7 @@
         <v>2</v>
       </c>
       <c r="B113" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1835,7 +1817,7 @@
         <v>2</v>
       </c>
       <c r="B114" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1843,7 +1825,7 @@
         <v>2</v>
       </c>
       <c r="B115" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1851,7 +1833,7 @@
         <v>2</v>
       </c>
       <c r="B116" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1859,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="B117" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1867,7 +1849,7 @@
         <v>2</v>
       </c>
       <c r="B118" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1875,7 +1857,7 @@
         <v>2</v>
       </c>
       <c r="B119" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1883,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="B120" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1891,7 +1873,7 @@
         <v>2</v>
       </c>
       <c r="B121" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1899,7 +1881,7 @@
         <v>2</v>
       </c>
       <c r="B122" t="s">
-        <v>113</v>
+        <v>42</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1907,7 +1889,7 @@
         <v>2</v>
       </c>
       <c r="B123" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1915,7 +1897,7 @@
         <v>2</v>
       </c>
       <c r="B124" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1923,7 +1905,7 @@
         <v>2</v>
       </c>
       <c r="B125" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1931,7 +1913,7 @@
         <v>2</v>
       </c>
       <c r="B126" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1939,7 +1921,7 @@
         <v>2</v>
       </c>
       <c r="B127" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1947,7 +1929,7 @@
         <v>2</v>
       </c>
       <c r="B128" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1955,7 +1937,7 @@
         <v>2</v>
       </c>
       <c r="B129" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1963,7 +1945,7 @@
         <v>2</v>
       </c>
       <c r="B130" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1971,7 +1953,7 @@
         <v>2</v>
       </c>
       <c r="B131" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1979,7 +1961,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1987,7 +1969,7 @@
         <v>2</v>
       </c>
       <c r="B133" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1995,7 +1977,7 @@
         <v>2</v>
       </c>
       <c r="B134" t="s">
-        <v>125</v>
+        <v>33</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2003,7 +1985,7 @@
         <v>2</v>
       </c>
       <c r="B135" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2011,7 +1993,7 @@
         <v>2</v>
       </c>
       <c r="B136" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2019,7 +2001,7 @@
         <v>2</v>
       </c>
       <c r="B137" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2027,7 +2009,7 @@
         <v>2</v>
       </c>
       <c r="B138" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2035,7 +2017,7 @@
         <v>2</v>
       </c>
       <c r="B139" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2043,7 +2025,7 @@
         <v>2</v>
       </c>
       <c r="B140" t="s">
-        <v>131</v>
+        <v>42</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2051,7 +2033,7 @@
         <v>2</v>
       </c>
       <c r="B141" t="s">
-        <v>4</v>
+        <v>124</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2059,7 +2041,7 @@
         <v>2</v>
       </c>
       <c r="B142" t="s">
-        <v>4</v>
+        <v>125</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2067,7 +2049,7 @@
         <v>2</v>
       </c>
       <c r="B143" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2075,7 +2057,7 @@
         <v>2</v>
       </c>
       <c r="B144" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2083,7 +2065,7 @@
         <v>2</v>
       </c>
       <c r="B145" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2091,7 +2073,7 @@
         <v>2</v>
       </c>
       <c r="B146" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2099,7 +2081,7 @@
         <v>2</v>
       </c>
       <c r="B147" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2107,7 +2089,7 @@
         <v>2</v>
       </c>
       <c r="B148" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2115,7 +2097,7 @@
         <v>2</v>
       </c>
       <c r="B149" t="s">
-        <v>138</v>
+        <v>33</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2123,7 +2105,7 @@
         <v>2</v>
       </c>
       <c r="B150" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2131,7 +2113,7 @@
         <v>2</v>
       </c>
       <c r="B151" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2139,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="B152" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2147,7 +2129,7 @@
         <v>2</v>
       </c>
       <c r="B153" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2155,7 +2137,7 @@
         <v>2</v>
       </c>
       <c r="B154" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2163,7 +2145,7 @@
         <v>2</v>
       </c>
       <c r="B155" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2171,7 +2153,7 @@
         <v>2</v>
       </c>
       <c r="B156" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2179,7 +2161,7 @@
         <v>2</v>
       </c>
       <c r="B157" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2187,7 +2169,7 @@
         <v>2</v>
       </c>
       <c r="B158" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2195,7 +2177,7 @@
         <v>2</v>
       </c>
       <c r="B159" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2203,7 +2185,7 @@
         <v>2</v>
       </c>
       <c r="B160" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2211,7 +2193,7 @@
         <v>2</v>
       </c>
       <c r="B161" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2219,7 +2201,7 @@
         <v>2</v>
       </c>
       <c r="B162" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2227,7 +2209,7 @@
         <v>2</v>
       </c>
       <c r="B163" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2235,7 +2217,7 @@
         <v>2</v>
       </c>
       <c r="B164" t="s">
-        <v>4</v>
+        <v>144</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2243,7 +2225,7 @@
         <v>2</v>
       </c>
       <c r="B165" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2251,7 +2233,7 @@
         <v>2</v>
       </c>
       <c r="B166" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2259,7 +2241,7 @@
         <v>2</v>
       </c>
       <c r="B167" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2267,7 +2249,7 @@
         <v>2</v>
       </c>
       <c r="B168" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2275,7 +2257,7 @@
         <v>2</v>
       </c>
       <c r="B169" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2283,7 +2265,7 @@
         <v>2</v>
       </c>
       <c r="B170" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2291,7 +2273,7 @@
         <v>2</v>
       </c>
       <c r="B171" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2299,7 +2281,7 @@
         <v>2</v>
       </c>
       <c r="B172" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2307,7 +2289,7 @@
         <v>2</v>
       </c>
       <c r="B173" t="s">
-        <v>4</v>
+        <v>152</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2315,7 +2297,7 @@
         <v>2</v>
       </c>
       <c r="B174" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2323,7 +2305,7 @@
         <v>2</v>
       </c>
       <c r="B175" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2331,7 +2313,7 @@
         <v>2</v>
       </c>
       <c r="B176" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2339,7 +2321,7 @@
         <v>2</v>
       </c>
       <c r="B177" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2347,7 +2329,7 @@
         <v>2</v>
       </c>
       <c r="B178" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2355,7 +2337,7 @@
         <v>2</v>
       </c>
       <c r="B179" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2363,7 +2345,7 @@
         <v>2</v>
       </c>
       <c r="B180" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2371,7 +2353,7 @@
         <v>2</v>
       </c>
       <c r="B181" t="s">
-        <v>166</v>
+        <v>42</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2379,7 +2361,7 @@
         <v>2</v>
       </c>
       <c r="B182" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2387,7 +2369,7 @@
         <v>2</v>
       </c>
       <c r="B183" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2395,7 +2377,7 @@
         <v>2</v>
       </c>
       <c r="B184" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2403,7 +2385,7 @@
         <v>2</v>
       </c>
       <c r="B185" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2411,7 +2393,7 @@
         <v>2</v>
       </c>
       <c r="B186" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2419,7 +2401,7 @@
         <v>2</v>
       </c>
       <c r="B187" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2427,7 +2409,7 @@
         <v>2</v>
       </c>
       <c r="B188" t="s">
-        <v>4</v>
+        <v>166</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2435,7 +2417,7 @@
         <v>2</v>
       </c>
       <c r="B189" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2443,7 +2425,7 @@
         <v>2</v>
       </c>
       <c r="B190" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2451,7 +2433,7 @@
         <v>2</v>
       </c>
       <c r="B191" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2459,7 +2441,7 @@
         <v>2</v>
       </c>
       <c r="B192" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2467,7 +2449,7 @@
         <v>2</v>
       </c>
       <c r="B193" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2475,7 +2457,7 @@
         <v>2</v>
       </c>
       <c r="B194" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2483,7 +2465,7 @@
         <v>2</v>
       </c>
       <c r="B195" t="s">
-        <v>4</v>
+        <v>172</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2491,7 +2473,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>178</v>
+        <v>42</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2499,7 +2481,7 @@
         <v>2</v>
       </c>
       <c r="B197" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2507,7 +2489,7 @@
         <v>2</v>
       </c>
       <c r="B198" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2515,7 +2497,7 @@
         <v>2</v>
       </c>
       <c r="B199" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2523,7 +2505,7 @@
         <v>2</v>
       </c>
       <c r="B200" t="s">
-        <v>4</v>
+        <v>176</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2531,7 +2513,7 @@
         <v>2</v>
       </c>
       <c r="B201" t="s">
-        <v>182</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
